--- a/DesignDocuments/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/主角、怪物状态转移矩阵.xlsx
@@ -4,199 +4,219 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="角色状态" sheetId="1" r:id="rId1"/>
     <sheet name="怪物状态" sheetId="4" r:id="rId2"/>
-    <sheet name="特殊状态" sheetId="2" r:id="rId3"/>
+    <sheet name="角色特殊状态" sheetId="2" r:id="rId3"/>
+    <sheet name="怪物特殊状态 " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="45">
   <si>
     <t>当前状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>可衔接状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中下坠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中跳跃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中近战蓄力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中近战（连招）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中远程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中硬直</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中冲刺</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>落地缓冲</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面Idle</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面跳跃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面近战（连招）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面近战蓄力</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面远程</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面硬直</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>翻滚</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>接触地面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>左键</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>右键</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中收回勾刃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表示不作操作时的默认状态转换</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>输入</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>被动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表示输入对应操作时允许的状态转换</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>不支持的状态转换</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>右键（长按）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>方向键+空格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>接触地面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>在当前状态下接触地面才会默认触发的状态转换。接触地面后，不可直接触发任何空中状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>带W的方向键+空格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>不带W的方向键+空格</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>被击飞</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>→</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>落地</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>起身</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面起跳</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>表示状态可切换</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色表示此状态切换支持硬直取消</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽硬直</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>破绽硬直起身</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -257,8 +277,24 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +314,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,58 +383,88 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,11 +775,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -720,24 +792,24 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -792,7 +864,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -835,15 +907,15 @@
       <c r="U3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -884,15 +956,15 @@
       <c r="U4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -933,15 +1005,15 @@
       <c r="U5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -980,15 +1052,15 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1029,15 +1101,15 @@
       <c r="U7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1075,9 +1147,16 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1117,7 +1196,7 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1157,7 +1236,7 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1266,7 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1310,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1244,30 +1323,30 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="P13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="6" t="s">
+      <c r="Q13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1382,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1416,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1371,7 +1450,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1409,7 +1488,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1421,33 +1500,33 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="13" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="A3:A18"/>
     <mergeCell ref="V3:Y3"/>
@@ -1455,8 +1534,9 @@
     <mergeCell ref="V4:Y4"/>
     <mergeCell ref="V6:Y6"/>
     <mergeCell ref="V7:Y7"/>
+    <mergeCell ref="V8:Y8"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1465,11 +1545,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1482,18 +1562,18 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1530,7 +1610,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -1548,7 +1628,7 @@
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -1564,7 +1644,7 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1580,7 +1660,7 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1596,7 +1676,7 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1692,7 @@
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1627,15 +1707,15 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
@@ -1651,7 +1731,7 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -1667,7 +1747,7 @@
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
@@ -1683,7 +1763,7 @@
       <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1704,7 +1784,7 @@
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="V8:Y8"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1757,7 +1837,55 @@
     <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/DesignDocuments/主角、怪物状态转移矩阵.xlsx
+++ b/DesignDocuments/主角、怪物状态转移矩阵.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="角色状态" sheetId="1" r:id="rId1"/>
-    <sheet name="怪物状态" sheetId="4" r:id="rId2"/>
-    <sheet name="角色特殊状态" sheetId="2" r:id="rId3"/>
+    <sheet name="角色特殊状态" sheetId="2" r:id="rId2"/>
+    <sheet name="怪物状态" sheetId="4" r:id="rId3"/>
     <sheet name="怪物特殊状态 " sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -390,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -419,9 +419,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -446,12 +443,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -465,6 +456,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -779,7 +776,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -792,24 +789,24 @@
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -864,7 +861,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -907,15 +904,15 @@
       <c r="U3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
     </row>
     <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
@@ -956,15 +953,15 @@
       <c r="U4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1005,15 +1002,15 @@
       <c r="U5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1052,15 +1049,15 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1101,15 +1098,15 @@
       <c r="U7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="V7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
     </row>
     <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1147,16 +1144,16 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="19" t="s">
+      <c r="U8" s="23"/>
+      <c r="V8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
     </row>
     <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1193,7 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1236,7 +1233,7 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1263,7 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1307,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1323,30 +1320,30 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +1379,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +1413,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1447,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1488,7 +1485,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1500,28 +1497,28 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="13" t="s">
+      <c r="N18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="O18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="13" t="s">
+      <c r="P18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1542,255 +1539,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y12"/>
-  <sheetViews>
-    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-    </row>
-    <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="V8:Y8"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -1843,6 +1591,255 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y12"/>
+  <sheetViews>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="9"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+    </row>
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+    </row>
+    <row r="9" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="V8:Y8"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
@@ -1853,16 +1850,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>44</v>
       </c>
     </row>
